--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1484689.972059448</v>
+        <v>1482432.950150366</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>88.309329815553</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>112.3932904856839</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>99.6086692916236</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>8.78742075103631</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>43.95772706123027</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>157.1826414337801</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>126.3298627762798</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>266.6910260201686</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>118.8460297402134</v>
+        <v>230.6815503270428</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,13 +1181,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>86.11283245545005</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>205.3743261851594</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492352</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>78.79804590907973</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653454</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249709</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.9891161432565</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1822,16 +1822,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>120.6353666620232</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>139.4881144206579</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>135.7459806757069</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250806</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247882</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>60.95204631385808</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2533,7 +2533,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>56.91071586901235</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>16.40950281067926</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2770,13 +2770,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>181.4487096095776</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>74.75769145492362</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,16 +3004,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>283.3625761954352</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>53.78998909690362</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>133.2205257453323</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534537</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935316</v>
+        <v>91.48962022749592</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298067</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581635</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345256</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143244</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164168</v>
+        <v>87.87589738164192</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>188.7127700430365</v>
       </c>
       <c r="T37" t="n">
-        <v>11.97487652147111</v>
+        <v>218.4926939877637</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172073</v>
+        <v>285.1555829172074</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354223</v>
+        <v>251.0813880354225</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481854</v>
+        <v>285.4667430481855</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>224.6534001006317</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636891</v>
+        <v>217.5283980636893</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3718,7 +3718,7 @@
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052364</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
         <v>239.5478617179984</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572838</v>
+        <v>97.77987829572849</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532.9757468194221</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="C2" t="n">
-        <v>164.0132298790103</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>164.0132298790103</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>164.0132298790103</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>157.0677291298069</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>143.1443250683978</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4370,10 +4370,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1196.18634261119</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.5755868835438</v>
+        <v>806.0470106353782</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>416.4487827635302</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>598.0972475937699</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>598.0972475937699</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="T4" t="n">
-        <v>598.0972475937699</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0972475937699</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>598.0972475937699</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>598.0972475937699</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>598.0972475937699</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>598.0972475937699</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2476.569858826099</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2652.747346511929</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2476.569858826099</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2476.569858826099</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2476.569858826099</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2476.569858826099</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2476.569858826099</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>2476.569858826099</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>2476.569858826099</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="6">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U7" t="n">
-        <v>458.7441094385871</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>204.0596212327002</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508782</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.41871256837</v>
+        <v>1251.118186271549</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.15301396162</v>
+        <v>1251.118186271549</v>
       </c>
       <c r="E8" t="n">
-        <v>752.3647613633757</v>
+        <v>865.3299336733044</v>
       </c>
       <c r="F8" t="n">
-        <v>341.3788565737681</v>
+        <v>858.3844329241009</v>
       </c>
       <c r="G8" t="n">
-        <v>327.455452512359</v>
+        <v>440.4206248222878</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>641.1463251605253</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>641.1463251605253</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U10" t="n">
-        <v>351.9727148150933</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="V10" t="n">
-        <v>351.9727148150933</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="W10" t="n">
-        <v>351.9727148150933</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="X10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,49 +5018,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L11" t="n">
-        <v>1971.087962216427</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M11" t="n">
-        <v>2504.619866888351</v>
+        <v>2368.748013620956</v>
       </c>
       <c r="N11" t="n">
-        <v>3051.398683947134</v>
+        <v>3348.500285847603</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.393206660291</v>
+        <v>3851.47275672694</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5142,28 +5142,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>713.500925259242</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>713.500925259242</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>713.500925259242</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>565.5878316768489</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>418.6978841789385</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5203,7 +5203,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5215,34 +5215,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q13" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.55611102446</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.138940987499</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X13" t="n">
-        <v>895.1493900894817</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y13" t="n">
-        <v>895.1493900894817</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5279,43 +5279,43 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>888.4135721382793</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1339.447785386688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2317.998088216516</v>
+        <v>2439.038619608516</v>
       </c>
       <c r="N14" t="n">
-        <v>3297.750360443163</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O14" t="n">
-        <v>3800.7228313225</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5367,16 +5367,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>974.4083489326723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>805.4721660047654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>655.3555265924297</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>507.4424330100366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>360.5524855121262</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5455,31 +5455,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1445.473983799873</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W16" t="n">
-        <v>1156.056813762912</v>
+        <v>709.6864413838518</v>
       </c>
       <c r="X16" t="n">
-        <v>1156.056813762912</v>
+        <v>481.6968904858345</v>
       </c>
       <c r="Y16" t="n">
-        <v>1156.056813762912</v>
+        <v>260.9043113423044</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5519,16 +5519,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1069.293752345675</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M17" t="n">
-        <v>1897.67628410419</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330836</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
         <v>4470.748294107237</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5616,28 +5616,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>481.696890485834</v>
+        <v>217.4149401676098</v>
       </c>
       <c r="C19" t="n">
-        <v>481.696890485834</v>
+        <v>217.4149401676098</v>
       </c>
       <c r="D19" t="n">
-        <v>481.696890485834</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>333.7837969034409</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5674,10 +5674,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5689,34 +5689,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501055</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783402</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838514</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X19" t="n">
-        <v>481.696890485834</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="Y19" t="n">
-        <v>481.696890485834</v>
+        <v>399.0634049978495</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,28 +5750,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M20" t="n">
-        <v>2536.153662641309</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N20" t="n">
-        <v>3515.905934867956</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O20" t="n">
-        <v>4018.878405747293</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5780,22 +5780,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5835,22 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>529.0120128405561</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>529.0120128405561</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>378.8953734282204</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>378.8953734282204</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>378.8953734282204</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5914,7 +5914,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5926,34 +5926,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1475.554715057173</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1220.870226851286</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W22" t="n">
-        <v>931.4530568143258</v>
+        <v>619.8559841413793</v>
       </c>
       <c r="X22" t="n">
-        <v>931.4530568143258</v>
+        <v>391.8664332433619</v>
       </c>
       <c r="Y22" t="n">
-        <v>710.6604776707958</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811482</v>
       </c>
       <c r="M23" t="n">
-        <v>2006.065164440651</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N23" t="n">
-        <v>2985.817436667297</v>
+        <v>2920.758180993044</v>
       </c>
       <c r="O23" t="n">
-        <v>3865.782086996752</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.592772497321</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216194</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549427</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494872</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763722</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089903</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468579</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549554</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142069</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635549</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487876</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282343</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517389</v>
       </c>
     </row>
     <row r="25">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>307.2453974100818</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C25" t="n">
         <v>245.6776738607302</v>
@@ -6148,49 +6148,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208123</v>
+        <v>1106.472070799367</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838517</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="X25" t="n">
-        <v>709.6864413838517</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="Y25" t="n">
-        <v>488.8938622403216</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="26">
@@ -6218,28 +6218,28 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366028</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2215.249704195857</v>
+        <v>2439.038619608516</v>
       </c>
       <c r="N26" t="n">
-        <v>2762.028521254639</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O26" t="n">
-        <v>3641.993171584094</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P26" t="n">
         <v>4260.556453353931</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6306,16 +6306,16 @@
         <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6324,7 +6324,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6333,22 +6333,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>743.5783504462083</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>574.6421675183014</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>574.6421675183014</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>426.7290739359083</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>279.8391264379979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>112.1362898127169</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>112.1362898127169</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6388,46 +6388,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1253.788099626699</v>
+        <v>909.2731541783407</v>
       </c>
       <c r="W28" t="n">
-        <v>964.3709295897385</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>964.3709295897385</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>743.5783504462083</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6464,16 +6464,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>818.2062848686776</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1682.725100522032</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.6259356382594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6625,10 +6625,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
@@ -6640,10 +6640,10 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
         <v>1674.827124689058</v>
@@ -6652,19 +6652,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1166.83568481875</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1166.83568481875</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W31" t="n">
-        <v>877.4185147817896</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X31" t="n">
-        <v>877.4185147817896</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y31" t="n">
-        <v>656.6259356382594</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1784.466183544591</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M32" t="n">
-        <v>2317.998088216516</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N32" t="n">
-        <v>3297.750360443163</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O32" t="n">
-        <v>3800.7228313225</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4530568143261</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5168738864194</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4002344740836</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>464.4871408916905</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>317.5971933937801</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>149.8943567684991</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6859,49 +6859,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U34" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>1220.870226851287</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W34" t="n">
-        <v>931.4530568143261</v>
+        <v>619.8559841413793</v>
       </c>
       <c r="X34" t="n">
-        <v>931.4530568143261</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y34" t="n">
-        <v>931.4530568143261</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="35">
@@ -6914,67 +6914,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K35" t="n">
-        <v>786.6724891157196</v>
+        <v>785.665188117619</v>
       </c>
       <c r="L35" t="n">
-        <v>1237.706702364128</v>
+        <v>1236.699401366027</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973176</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161906</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549394</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494839</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763689</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7014,52 +7014,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902951</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.10246054955</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142066</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635546</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313401</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447817</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216074</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487872</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517386</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>633.5386939877158</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>633.5386939877158</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>484.4889791091233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>337.6428100604733</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>191.819787096306</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>191.819787096306</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>191.819787096306</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308516</v>
+        <v>141.7293596308514</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152495</v>
+        <v>346.7622353152492</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992673</v>
+        <v>664.3677264992666</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834338</v>
+        <v>1009.570464834337</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275724</v>
+        <v>1352.024534275723</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931659</v>
+        <v>1652.399825931658</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.05301910084</v>
+        <v>1886.053019100838</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988876</v>
+        <v>1964.709007988874</v>
       </c>
       <c r="R37" t="n">
-        <v>1875.945475280147</v>
+        <v>1875.945475280145</v>
       </c>
       <c r="S37" t="n">
-        <v>1875.945475280147</v>
+        <v>1685.326515640714</v>
       </c>
       <c r="T37" t="n">
-        <v>1863.849640409974</v>
+        <v>1464.626824743983</v>
       </c>
       <c r="U37" t="n">
-        <v>1575.813698069361</v>
+        <v>1176.59088240337</v>
       </c>
       <c r="V37" t="n">
-        <v>1322.196134397217</v>
+        <v>922.9733187312254</v>
       </c>
       <c r="W37" t="n">
-        <v>1033.845888893999</v>
+        <v>634.6230732280076</v>
       </c>
       <c r="X37" t="n">
-        <v>1033.845888893999</v>
+        <v>407.7004468637331</v>
       </c>
       <c r="Y37" t="n">
-        <v>814.1202342842125</v>
+        <v>187.9747922539459</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1650.184003770974</v>
+        <v>1407.474004094473</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.715908442899</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N38" t="n">
-        <v>2730.494725501681</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906985</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,64 +7227,64 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7315,16 +7315,16 @@
         <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7351,13 +7351,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7412,49 +7412,49 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1390.197710791128</v>
+        <v>1088.893283004706</v>
       </c>
       <c r="M41" t="n">
-        <v>2368.748013620957</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N41" t="n">
-        <v>3044.228895027648</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O41" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7494,7 +7494,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
         <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932529</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160449</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H43" t="n">
         <v>145.4370786819758</v>
@@ -7567,13 +7567,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
         <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,7 +7588,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
@@ -7606,13 +7606,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001584</v>
@@ -7643,40 +7643,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>1067.86556189063</v>
       </c>
       <c r="L44" t="n">
-        <v>1390.197710791128</v>
+        <v>1518.899775139038</v>
       </c>
       <c r="M44" t="n">
-        <v>2368.748013620957</v>
+        <v>2497.450077968867</v>
       </c>
       <c r="N44" t="n">
-        <v>3348.500285847604</v>
+        <v>3044.228895027649</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906986</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604875</v>
@@ -7716,22 +7716,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7801,7 +7801,7 @@
         <v>145.4370786819758</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J46" t="n">
         <v>187.1890521477366</v>
@@ -7810,7 +7810,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7825,13 +7825,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>205.0727796301219</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>161.0524397463293</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,19 +8927,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>272.882861657589</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>426.998343622192</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,10 +9167,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M17" t="n">
-        <v>297.8289162490814</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>398.2509825792567</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>57.67224444723854</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,16 +9638,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>238.2160185885847</v>
+        <v>285.7011105564192</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-5.203808272697429e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>102.8529310510272</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>226.0494095077362</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10112,19 +10112,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>32.86979469803862</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>381.817657018402</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10352,25 +10352,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>229.1543674071817</v>
+        <v>29.61882225792226</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,28 +10586,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>1.01747575565679</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>231.5010718068667</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>17.45080131651036</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>316.9032015413812</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>19.79750571619286</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>130.0020851999082</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>285.0508825990002</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11306,16 +11306,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>226.768859619311</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.0742887270138</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>87.22776234994849</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>16.14213605696643</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03669211577175702</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>27.98010635618913</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>5.932933602273323</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>30.27982758332135</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983812</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>105.0742887270142</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>106.2947747847698</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>195.2269274548157</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>79.94291759915883</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270137</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,16 +24892,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>2.849262010177654</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>90.96502581741716</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.48912964370486</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>87.28610466603594</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102222</v>
+        <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>147.5592177298069</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706226</v>
+        <v>164.9695529706228</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259151</v>
+        <v>143.6987596259153</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>95.29616512143268</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430362</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>206.5178174662924</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006315</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>-7.46078767100878e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-2.700062395888381e-13</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
         <v>476498.1442643797</v>
       </c>
       <c r="F2" t="n">
-        <v>476498.1442643796</v>
+        <v>476498.1442643797</v>
       </c>
       <c r="G2" t="n">
-        <v>476498.1442643796</v>
+        <v>476498.1442643798</v>
       </c>
       <c r="H2" t="n">
         <v>476498.1442643799</v>
@@ -26335,25 +26335,25 @@
         <v>476498.1442643799</v>
       </c>
       <c r="J2" t="n">
-        <v>476498.1442643796</v>
+        <v>476498.1442643799</v>
       </c>
       <c r="K2" t="n">
         <v>476498.1442643797</v>
       </c>
       <c r="L2" t="n">
-        <v>476498.1442643799</v>
+        <v>476498.14426438</v>
       </c>
       <c r="M2" t="n">
         <v>476860.7646479292</v>
       </c>
       <c r="N2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185694</v>
       </c>
       <c r="O2" t="n">
         <v>492625.0619185693</v>
       </c>
       <c r="P2" t="n">
-        <v>492625.0619185695</v>
+        <v>492625.0619185697</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.134659204486525e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925926</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696693</v>
+        <v>130487.319069669</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414955</v>
+        <v>36735.10506415</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
         <v>18148.49231918995</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="G4" t="n">
         <v>18148.49231918995</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918994</v>
@@ -26445,19 +26445,19 @@
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811458</v>
+        <v>18496.05294811456</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740901</v>
       </c>
     </row>
     <row r="5">
@@ -26488,7 +26488,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26497,10 +26497,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955462</v>
+        <v>96472.31657955461</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-363550.5822165121</v>
+        <v>-363550.5822165119</v>
       </c>
       <c r="C6" t="n">
-        <v>226417.2969980324</v>
+        <v>226417.2969980323</v>
       </c>
       <c r="D6" t="n">
-        <v>226417.2969980325</v>
+        <v>226417.2969980323</v>
       </c>
       <c r="E6" t="n">
-        <v>-365411.2803019305</v>
+        <v>-365478.4757921562</v>
       </c>
       <c r="F6" t="n">
-        <v>361966.1336914761</v>
+        <v>361898.9382012504</v>
       </c>
       <c r="G6" t="n">
-        <v>361966.1336914761</v>
+        <v>361898.9382012504</v>
       </c>
       <c r="H6" t="n">
-        <v>361966.1336914763</v>
+        <v>361898.9382012505</v>
       </c>
       <c r="I6" t="n">
-        <v>361966.1336914763</v>
+        <v>361898.93820125</v>
       </c>
       <c r="J6" t="n">
-        <v>185542.9144988831</v>
+        <v>185475.7190086578</v>
       </c>
       <c r="K6" t="n">
-        <v>361966.1336914761</v>
+        <v>361898.9382012503</v>
       </c>
       <c r="L6" t="n">
-        <v>361966.1336914763</v>
+        <v>361898.9382012506</v>
       </c>
       <c r="M6" t="n">
-        <v>231405.0760505907</v>
+        <v>231339.39147863</v>
       </c>
       <c r="N6" t="n">
-        <v>321951.6325429091</v>
+        <v>321951.6325429083</v>
       </c>
       <c r="O6" t="n">
         <v>358686.7376070582</v>
       </c>
       <c r="P6" t="n">
-        <v>358686.7376070584</v>
+        <v>358686.7376070585</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26756,7 +26756,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018693</v>
+        <v>45.91888133018711</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>235.6134429488042</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>257.3378101927851</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>47.05652268853423</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>203.3581181989826</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>10.52067551358144</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>229.0552972222735</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>20.33532920387802</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>19.5908482218091</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>205.0767430241438</v>
+        <v>93.24122243731435</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>126.0327064945689</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>20.33532920387771</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-5.822569800700287e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="C37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="D37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="E37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="F37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="G37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="H37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="I37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="J37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="K37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="L37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="N37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="O37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="P37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="R37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="S37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="T37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="U37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="V37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="W37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="X37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.05625528840564</v>
+        <v>1.056255288405441</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32555,7 +32555,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233474</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H36" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987485</v>
@@ -33761,10 +33761,10 @@
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q37" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33977,7 +33977,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34214,7 +34214,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1257805183409</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>559.8144259657009</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>610.0741482129894</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>965.9194594524188</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443195</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,10 +35887,10 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M17" t="n">
-        <v>836.750032079308</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248955</v>
@@ -35899,7 +35899,7 @@
         <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037194</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265651</v>
@@ -36127,7 +36127,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>937.1720984094833</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248955</v>
@@ -36136,13 +36136,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>456.4342306666102</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013291</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M23" t="n">
-        <v>777.1371344188112</v>
+        <v>824.6222263866462</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509648</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>641.774046881254</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36610,7 +36610,7 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>624.8113957271081</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M28" t="n">
         <v>347.6333793934838</v>
@@ -36832,19 +36832,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>370.0610812534391</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>837.4077714107342</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36990,7 +36990,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37069,28 +37069,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>684.7444817995139</v>
+        <v>485.2089366502542</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K35" t="n">
-        <v>338.2087623110573</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>770.4221876370931</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248953</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q36" t="n">
         <v>159.233896612727</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147186</v>
+        <v>46.63467190147163</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327252</v>
+        <v>207.103914832725</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586038</v>
+        <v>320.8136274586034</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818895</v>
+        <v>348.6896346818892</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559457</v>
+        <v>345.9132014559454</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110454</v>
+        <v>303.4093855110451</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335161</v>
+        <v>236.0133264335158</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629929</v>
+        <v>79.45049382629901</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>473.0409157088425</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>824.9562024296004</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37780,19 +37780,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>475.387620108525</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>682.3039206128196</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37801,7 +37801,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>622.2421691544007</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38026,16 +38026,16 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>734.8218605075301</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
